--- a/Scheme/BOM/BOM-RF-UNIT-BIG-rev5.xlsx
+++ b/Scheme/BOM/BOM-RF-UNIT-BIG-rev5.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="316">
   <si>
     <t>Comment</t>
   </si>
@@ -341,256 +341,253 @@
     <t>10uH</t>
   </si>
   <si>
+    <t>L30, L43</t>
+  </si>
+  <si>
+    <t>IND_FERRITE_CORE</t>
+  </si>
+  <si>
+    <t>11uH</t>
+  </si>
+  <si>
+    <t>L25, L26, L27</t>
+  </si>
+  <si>
+    <t>12p</t>
+  </si>
+  <si>
+    <t>C9, C11</t>
+  </si>
+  <si>
+    <t>13.8V</t>
+  </si>
+  <si>
+    <t>JX2</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>1986717-2</t>
+  </si>
+  <si>
+    <t>15n</t>
+  </si>
+  <si>
+    <t>C81, C111</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>R23, R61</t>
+  </si>
+  <si>
+    <t>22 2W</t>
+  </si>
+  <si>
+    <t>CFR200J100R</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>RES-2W</t>
+  </si>
+  <si>
+    <t>22nH</t>
+  </si>
+  <si>
+    <t>L48</t>
+  </si>
+  <si>
+    <t>22p</t>
+  </si>
+  <si>
+    <t>C85</t>
+  </si>
+  <si>
+    <t>C14, C15, C16, C17, C18, C22, C23</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>CAPAE_6.6x6.6h5.4</t>
+  </si>
+  <si>
+    <t>C74, C77</t>
+  </si>
+  <si>
+    <t>27pF</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>R4, R41, R45, R48, R75</t>
+  </si>
+  <si>
+    <t>33p</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>39p</t>
+  </si>
+  <si>
+    <t>C19, C21</t>
+  </si>
+  <si>
+    <t>47p</t>
+  </si>
+  <si>
+    <t>C86</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>47uF 25V</t>
+  </si>
+  <si>
+    <t>C119</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>R55, R56</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>R15, R16, R26, R27, R44</t>
+  </si>
+  <si>
+    <t>56p</t>
+  </si>
+  <si>
+    <t>C24, C26, C27, C28, C32, C33</t>
+  </si>
+  <si>
+    <t>82p</t>
+  </si>
+  <si>
+    <t>C30, C37, C39</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>R28, R29, R51</t>
+  </si>
+  <si>
+    <t>R34</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>C38, C59, C64, C67, C71, C76, C78, C80, C82, C89, C90, C107, C108, C109, C110, C113, C114, C116, C117, C118, C123, C124, C125, C130, C133, C134, C135, C136, C137, C138, C139, C140, C141, C142, C143, C144, C145, C146, C147, C148, C149, C150, C151, C152, C153, C154, C155, C156, C157, C158, C159, C160, C161, C162, C163, C164, C165, C166, C167, C168, C169, C170, C171</t>
+  </si>
+  <si>
+    <t>C131</t>
+  </si>
+  <si>
+    <t>C58, C61, C106</t>
+  </si>
+  <si>
+    <t>100p</t>
+  </si>
+  <si>
+    <t>C72</t>
+  </si>
+  <si>
+    <t>C127, C132</t>
+  </si>
+  <si>
+    <t>C87</t>
+  </si>
+  <si>
+    <t>C29, C31, C91, C93, C103</t>
+  </si>
+  <si>
+    <t>100pF 500V</t>
+  </si>
+  <si>
+    <t>C52, C56</t>
+  </si>
+  <si>
+    <t>120p</t>
+  </si>
+  <si>
+    <t>C68, C73</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>150p</t>
+  </si>
+  <si>
+    <t>C34, C36</t>
+  </si>
+  <si>
+    <t>158uH</t>
+  </si>
+  <si>
+    <t>L28, L29, L40</t>
+  </si>
+  <si>
+    <t>180p</t>
+  </si>
+  <si>
+    <t>C41, C43, C44</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>200nH</t>
+  </si>
+  <si>
+    <t>L1, L2, L3</t>
+  </si>
+  <si>
+    <t>200p</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>200pF 500V</t>
+  </si>
+  <si>
+    <t>C60</t>
+  </si>
+  <si>
+    <t>220nH</t>
+  </si>
+  <si>
     <t>IND_1206</t>
   </si>
   <si>
-    <t>L31</t>
-  </si>
-  <si>
-    <t>L30, L43</t>
-  </si>
-  <si>
-    <t>IND_FERRITE_CORE</t>
-  </si>
-  <si>
-    <t>11uH</t>
-  </si>
-  <si>
-    <t>L25, L26, L27</t>
-  </si>
-  <si>
-    <t>12p</t>
-  </si>
-  <si>
-    <t>C9, C11</t>
-  </si>
-  <si>
-    <t>13.8V</t>
-  </si>
-  <si>
-    <t>JX2</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>1986717-2</t>
-  </si>
-  <si>
-    <t>15n</t>
-  </si>
-  <si>
-    <t>C81, C111</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>R23, R61</t>
-  </si>
-  <si>
-    <t>22 2W</t>
-  </si>
-  <si>
-    <t>CFR200J100R</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>RES-2W</t>
-  </si>
-  <si>
-    <t>22nH</t>
-  </si>
-  <si>
-    <t>L48</t>
-  </si>
-  <si>
-    <t>22p</t>
-  </si>
-  <si>
-    <t>C85</t>
-  </si>
-  <si>
-    <t>C14, C15, C16, C17, C18, C22, C23</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>CAPAE_6.6x6.6h5.4</t>
-  </si>
-  <si>
-    <t>C74, C77</t>
-  </si>
-  <si>
-    <t>27pF</t>
-  </si>
-  <si>
-    <t>C55</t>
-  </si>
-  <si>
-    <t>30k</t>
-  </si>
-  <si>
-    <t>R4, R41, R45, R48, R75</t>
-  </si>
-  <si>
-    <t>33p</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>39p</t>
-  </si>
-  <si>
-    <t>C19, C21</t>
-  </si>
-  <si>
-    <t>47p</t>
-  </si>
-  <si>
-    <t>C86</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>47uF 25V</t>
-  </si>
-  <si>
-    <t>C119</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>R55, R56</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>R15, R16, R26, R27, R44</t>
-  </si>
-  <si>
-    <t>56p</t>
-  </si>
-  <si>
-    <t>C24, C26, C27, C28, C32, C33</t>
-  </si>
-  <si>
-    <t>82p</t>
-  </si>
-  <si>
-    <t>C30, C37, C39</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>R28, R29, R51</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>C38, C59, C64, C67, C71, C76, C78, C80, C82, C89, C90, C107, C108, C109, C110, C113, C114, C116, C117, C118, C123, C124, C125, C130, C133, C134, C135, C136, C137, C138, C139, C140, C141, C142, C143, C144, C145, C146, C147, C148, C149, C150, C151, C152, C153, C154, C155, C156, C157, C158, C159, C160, C161, C162, C163, C164, C165, C166, C167, C168, C169, C170, C171</t>
-  </si>
-  <si>
-    <t>C131</t>
-  </si>
-  <si>
-    <t>C58, C61, C106</t>
-  </si>
-  <si>
-    <t>100p</t>
-  </si>
-  <si>
-    <t>C72</t>
-  </si>
-  <si>
-    <t>C127, C132</t>
-  </si>
-  <si>
-    <t>C87</t>
-  </si>
-  <si>
-    <t>C29, C31, C91, C93, C103</t>
-  </si>
-  <si>
-    <t>100pF 500V</t>
-  </si>
-  <si>
-    <t>C52, C56</t>
-  </si>
-  <si>
-    <t>120p</t>
-  </si>
-  <si>
-    <t>C68, C73</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>150p</t>
-  </si>
-  <si>
-    <t>C34, C36</t>
-  </si>
-  <si>
-    <t>158uH</t>
-  </si>
-  <si>
-    <t>L28, L29, L40</t>
-  </si>
-  <si>
-    <t>180p</t>
-  </si>
-  <si>
-    <t>C41, C43, C44</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>200nH</t>
-  </si>
-  <si>
-    <t>L1, L2, L3</t>
-  </si>
-  <si>
-    <t>200p</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>200pF 500V</t>
-  </si>
-  <si>
-    <t>C60</t>
-  </si>
-  <si>
-    <t>220nH</t>
-  </si>
-  <si>
-    <t>L46</t>
+    <t>L31, L46</t>
   </si>
   <si>
     <t>220p</t>
@@ -1321,7 +1318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2083,33 +2080,33 @@
         <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,16 +2114,16 @@
         <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>109</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,33 +2131,33 @@
         <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,16 +2165,16 @@
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2194,7 +2191,7 @@
         <v>67</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2202,13 +2199,13 @@
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1">
         <v>2</v>
@@ -2216,19 +2213,19 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2236,13 +2233,13 @@
         <v>126</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -2250,53 +2247,53 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E56" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="E57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2304,16 +2301,16 @@
         <v>134</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,16 +2318,16 @@
         <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2347,7 +2344,7 @@
         <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2355,30 +2352,30 @@
         <v>140</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
@@ -2386,16 +2383,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>6</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
@@ -2406,16 +2403,16 @@
         <v>145</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,16 +2420,16 @@
         <v>147</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E65" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2440,16 +2437,16 @@
         <v>149</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,7 +2463,7 @@
         <v>8</v>
       </c>
       <c r="E67" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2474,13 +2471,13 @@
         <v>153</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -2488,146 +2485,146 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E71" s="1">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E73" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E75" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>166</v>
@@ -2636,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="E77" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,13 +2641,13 @@
         <v>167</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E78" s="1">
         <v>2</v>
@@ -2658,24 +2655,24 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>6</v>
@@ -2687,7 +2684,7 @@
         <v>8</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2695,16 +2692,16 @@
         <v>172</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E81" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2712,13 +2709,13 @@
         <v>174</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -2729,16 +2726,16 @@
         <v>176</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2746,16 +2743,16 @@
         <v>178</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>179</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,16 +2760,16 @@
         <v>180</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E85" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2797,30 +2794,30 @@
         <v>184</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
@@ -2828,118 +2825,118 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E91" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E93" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -2947,115 +2944,115 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E97" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E99" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="E101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>216</v>
@@ -3066,16 +3063,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E103" s="1">
         <v>1</v>
@@ -3083,84 +3080,84 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E104" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E105" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E107" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
@@ -3168,16 +3165,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
@@ -3185,101 +3182,101 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E111" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E112" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="E114" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
@@ -3287,16 +3284,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
@@ -3304,84 +3301,84 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E117" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>265</v>
+        <v>113</v>
       </c>
       <c r="E118" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="E119" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E120" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E121" s="1">
         <v>1</v>
@@ -3389,16 +3386,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -3406,50 +3403,50 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="E123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="E124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="E125" s="1">
         <v>1</v>
@@ -3457,16 +3454,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
@@ -3474,13 +3471,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>288</v>
@@ -3491,16 +3488,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -3508,33 +3505,33 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E130" s="1">
         <v>2</v>
@@ -3542,50 +3539,50 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>299</v>
+        <v>37</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="E132" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>37</v>
+        <v>302</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="E133" s="1">
         <v>5</v>
@@ -3593,33 +3590,33 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E134" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C135" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
@@ -3627,16 +3624,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C136" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="E136" s="1">
         <v>1</v>
@@ -3644,16 +3641,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
@@ -3661,35 +3658,18 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>314</v>
       </c>
       <c r="E138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E139" s="1">
         <v>1</v>
       </c>
     </row>
